--- a/inst/extdata/CopyOfData/pt_pu.xlsx
+++ b/inst/extdata/CopyOfData/pt_pu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24816"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="-920" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -342,6 +342,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -446,9 +447,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -606,7 +609,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="18">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -614,6 +617,7 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -621,6 +625,7 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Material Balance Summary 10 9 (from Revised2)" xfId="1"/>
   </cellStyles>
@@ -8633,7 +8638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8643,8 +8648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DF155"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="P100" sqref="P100:P151"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="P102" sqref="P102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -21582,9 +21587,6 @@
       <c r="O100" s="28">
         <v>250184.52371411136</v>
       </c>
-      <c r="P100" s="28">
-        <v>9093.2479999999996</v>
-      </c>
       <c r="Q100" s="2">
         <v>10036</v>
       </c>
@@ -21874,9 +21876,6 @@
       <c r="O101" s="28">
         <v>251934.34761868874</v>
       </c>
-      <c r="P101" s="28">
-        <v>8778.5509999999995</v>
-      </c>
       <c r="Q101" s="2">
         <v>9247</v>
       </c>
@@ -22172,9 +22171,6 @@
       <c r="O102" s="28">
         <v>255336.47463253647</v>
       </c>
-      <c r="P102" s="33">
-        <v>8999.6320000000014</v>
-      </c>
       <c r="Q102" s="2">
         <v>9106</v>
       </c>
@@ -22473,9 +22469,6 @@
       </c>
       <c r="O103" s="28">
         <v>254045.05485195934</v>
-      </c>
-      <c r="P103" s="28">
-        <v>8870.3240000000005</v>
       </c>
       <c r="Q103" s="2">
         <v>9258</v>
@@ -22775,7 +22768,7 @@
         <v>253425.38304822124</v>
       </c>
       <c r="P104" s="28">
-        <v>8946.5889999999999</v>
+        <v>9093.2479999999996</v>
       </c>
       <c r="Q104" s="2"/>
       <c r="R104" s="27">
@@ -23079,7 +23072,7 @@
         <v>249669.55068646435</v>
       </c>
       <c r="P105" s="28">
-        <v>8881.3209999999999</v>
+        <v>8778.5509999999995</v>
       </c>
       <c r="Q105" s="2"/>
       <c r="R105" s="27">
@@ -23385,8 +23378,8 @@
       <c r="O106" s="33">
         <v>254505.75805664327</v>
       </c>
-      <c r="P106" s="28">
-        <v>8874.6630000000005</v>
+      <c r="P106" s="33">
+        <v>8999.6320000000014</v>
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" s="27" t="e">
@@ -23695,7 +23688,7 @@
         <v>254483.62487456383</v>
       </c>
       <c r="P107" s="28">
-        <v>8855.1660000000011</v>
+        <v>8870.3240000000005</v>
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" s="27" t="e">
@@ -24004,7 +23997,7 @@
         <v>257702.35374585778</v>
       </c>
       <c r="P108" s="28">
-        <v>8951.92</v>
+        <v>8946.5889999999999</v>
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" s="27" t="e">
@@ -24313,7 +24306,7 @@
         <v>258256.9137683014</v>
       </c>
       <c r="P109" s="28">
-        <v>8977.3719999999994</v>
+        <v>8881.3209999999999</v>
       </c>
       <c r="Q109" s="2"/>
       <c r="R109" s="27" t="e">
@@ -24622,7 +24615,7 @@
         <v>260453.14917097377</v>
       </c>
       <c r="P110" s="28">
-        <v>8878.1139999999996</v>
+        <v>8874.6630000000005</v>
       </c>
       <c r="Q110" s="2"/>
       <c r="R110" s="27" t="e">
@@ -24931,7 +24924,7 @@
         <v>261303.19009079071</v>
       </c>
       <c r="P111" s="28">
-        <v>9008.4269999999997</v>
+        <v>8855.1660000000011</v>
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" s="27" t="e">
@@ -25240,7 +25233,7 @@
         <v>263612.96596107061</v>
       </c>
       <c r="P112" s="28">
-        <v>8990.7420000000002</v>
+        <v>8951.92</v>
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" s="27" t="e">
@@ -25549,7 +25542,7 @@
         <v>264614.9763281456</v>
       </c>
       <c r="P113" s="28">
-        <v>9159.2510000000002</v>
+        <v>8977.3719999999994</v>
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" s="27" t="e">
@@ -25858,7 +25851,7 @@
         <v>264483.29359305196</v>
       </c>
       <c r="P114" s="28">
-        <v>9261.277</v>
+        <v>8878.1139999999996</v>
       </c>
       <c r="Q114" s="2"/>
       <c r="R114" s="27" t="e">
@@ -26167,7 +26160,7 @@
         <v>267047.2065860749</v>
       </c>
       <c r="P115" s="28">
-        <v>9418.8070000000007</v>
+        <v>9008.4269999999997</v>
       </c>
       <c r="Q115" s="3">
         <f>H115</f>
@@ -26479,7 +26472,7 @@
         <v>267823.41393507487</v>
       </c>
       <c r="P116" s="28">
-        <v>9520.7309999999998</v>
+        <v>8990.7420000000002</v>
       </c>
       <c r="Q116" s="2"/>
       <c r="R116" s="27" t="e">
@@ -26788,7 +26781,7 @@
         <v>271018.77488553303</v>
       </c>
       <c r="P117" s="28">
-        <v>9678.1610000000001</v>
+        <v>9159.2510000000002</v>
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" s="27" t="e">
@@ -27097,7 +27090,7 @@
         <v>273371.77504421002</v>
       </c>
       <c r="P118" s="28">
-        <v>9798.94</v>
+        <v>9261.277</v>
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" s="27" t="e">
@@ -27406,7 +27399,7 @@
         <v>276080.3801096169</v>
       </c>
       <c r="P119" s="28">
-        <v>9916.255000000001</v>
+        <v>9418.8070000000007</v>
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" s="27" t="e">
@@ -27715,7 +27708,7 @@
         <v>278577.43991999998</v>
       </c>
       <c r="P120" s="28">
-        <v>10046.019</v>
+        <v>9520.7309999999998</v>
       </c>
       <c r="Q120" s="2"/>
       <c r="R120" s="27" t="e">
@@ -28024,7 +28017,7 @@
         <v>281626.86302399996</v>
       </c>
       <c r="P121" s="28">
-        <v>10092.272999999999</v>
+        <v>9678.1610000000001</v>
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" s="27" t="e">
@@ -28333,7 +28326,7 @@
         <v>283983.644256</v>
       </c>
       <c r="P122" s="28">
-        <v>10272.266</v>
+        <v>9798.94</v>
       </c>
       <c r="Q122" s="2"/>
       <c r="R122" s="27" t="e">
@@ -28642,7 +28635,7 @@
         <v>285740.35089599993</v>
       </c>
       <c r="P123" s="28">
-        <v>10347.571</v>
+        <v>9916.255000000001</v>
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" s="27" t="e">
@@ -28951,7 +28944,7 @@
         <v>288306.36993599997</v>
       </c>
       <c r="P124" s="28">
-        <v>10449.635</v>
+        <v>10046.019</v>
       </c>
       <c r="Q124" s="2"/>
       <c r="R124" s="27" t="e">
@@ -29260,7 +29253,7 @@
         <v>288984.82267199998</v>
       </c>
       <c r="P125" s="28">
-        <v>10542.155000000001</v>
+        <v>10092.272999999999</v>
       </c>
       <c r="Q125" s="2"/>
       <c r="R125" s="27" t="e">
@@ -29569,7 +29562,7 @@
         <v>291548.91703749349</v>
       </c>
       <c r="P126" s="28">
-        <v>10640.534</v>
+        <v>10272.266</v>
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" s="27" t="e">
@@ -29878,7 +29871,7 @@
         <v>292628.70487335086</v>
       </c>
       <c r="P127" s="28">
-        <v>10724.074000000001</v>
+        <v>10347.571</v>
       </c>
       <c r="Q127" s="2"/>
       <c r="R127" s="27" t="e">
@@ -30187,7 +30180,7 @@
         <v>294307.49467653164</v>
       </c>
       <c r="P128" s="28">
-        <v>10868.107</v>
+        <v>10449.635</v>
       </c>
       <c r="Q128" s="2"/>
       <c r="R128" s="27" t="e">
@@ -30496,7 +30489,7 @@
         <v>295659.07723024639</v>
       </c>
       <c r="P129" s="28">
-        <v>10921.984</v>
+        <v>10542.155000000001</v>
       </c>
       <c r="Q129" s="2"/>
       <c r="R129" s="27" t="e">
@@ -30805,7 +30798,7 @@
         <v>296637.69108206697</v>
       </c>
       <c r="P130" s="28">
-        <v>11117.953000000001</v>
+        <v>10640.534</v>
       </c>
       <c r="Q130" s="2"/>
       <c r="R130" s="27" t="e">
@@ -31114,7 +31107,7 @@
         <v>297199.8403029436</v>
       </c>
       <c r="P131" s="28">
-        <v>11141.11</v>
+        <v>10724.074000000001</v>
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" s="27" t="e">
@@ -31423,7 +31416,7 @@
         <v>299653.81006575079</v>
       </c>
       <c r="P132" s="28">
-        <v>11372.491</v>
+        <v>10868.107</v>
       </c>
       <c r="Q132" s="2"/>
       <c r="R132" s="27" t="e">
@@ -31732,7 +31725,7 @@
         <v>300562.33817277272</v>
       </c>
       <c r="P133" s="28">
-        <v>11336.922999999999</v>
+        <v>10921.984</v>
       </c>
       <c r="Q133" s="2"/>
       <c r="R133" s="27" t="e">
@@ -32041,7 +32034,7 @@
         <v>303921.48025552515</v>
       </c>
       <c r="P134" s="28">
-        <v>11649.654999999999</v>
+        <v>11117.953000000001</v>
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" s="27" t="e">
@@ -32350,7 +32343,7 @@
         <v>304369.74674884463</v>
       </c>
       <c r="P135" s="28">
-        <v>11697.514999999999</v>
+        <v>11141.11</v>
       </c>
       <c r="Q135" s="2"/>
       <c r="R135" s="27" t="e">
@@ -32659,7 +32652,7 @@
         <v>308197.11568958813</v>
       </c>
       <c r="P136" s="28">
-        <v>11794.12</v>
+        <v>11372.491</v>
       </c>
       <c r="Q136" s="2"/>
       <c r="R136" s="27" t="e">
@@ -32968,7 +32961,7 @@
         <v>307838.82638891815</v>
       </c>
       <c r="P137" s="28">
-        <v>11858.072</v>
+        <v>11336.922999999999</v>
       </c>
       <c r="Q137" s="2"/>
       <c r="R137" s="27" t="e">
@@ -33277,7 +33270,7 @@
         <v>312663.07396283175</v>
       </c>
       <c r="P138" s="28">
-        <v>12028.453000000001</v>
+        <v>11649.654999999999</v>
       </c>
       <c r="Q138" s="2"/>
       <c r="R138" s="27" t="e">
@@ -33586,7 +33579,7 @@
         <v>314111.24734630377</v>
       </c>
       <c r="P139" s="28">
-        <v>12054.239</v>
+        <v>11697.514999999999</v>
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" s="27" t="e">
@@ -33895,7 +33888,7 @@
         <v>316115.81089806854</v>
       </c>
       <c r="P140" s="28">
-        <v>12161.32</v>
+        <v>11794.12</v>
       </c>
       <c r="Q140" s="2"/>
       <c r="R140" s="27" t="e">
@@ -34204,7 +34197,7 @@
         <v>317605.97103021748</v>
       </c>
       <c r="P141" s="28">
-        <v>12204.148999999999</v>
+        <v>11858.072</v>
       </c>
       <c r="Q141" s="2"/>
       <c r="R141" s="27" t="e">
@@ -34513,7 +34506,7 @@
         <v>320654.04214699951</v>
       </c>
       <c r="P142" s="28">
-        <v>12238.026</v>
+        <v>12028.453000000001</v>
       </c>
       <c r="Q142" s="2"/>
       <c r="R142" s="27" t="e">
@@ -34822,7 +34815,7 @@
         <v>321798.73609796783</v>
       </c>
       <c r="P143" s="28">
-        <v>12261.177</v>
+        <v>12054.239</v>
       </c>
       <c r="Q143" s="2"/>
       <c r="R143" s="27" t="e">
@@ -35131,7 +35124,7 @@
         <v>324509.85997976532</v>
       </c>
       <c r="P144" s="28">
-        <v>12394.652999999998</v>
+        <v>12161.32</v>
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" s="27" t="e">
@@ -35440,7 +35433,7 @@
         <v>326062.10675768304</v>
       </c>
       <c r="P145" s="28">
-        <v>12293.335999999999</v>
+        <v>12204.148999999999</v>
       </c>
       <c r="Q145" s="2"/>
       <c r="R145" s="27" t="e">
@@ -35749,7 +35742,7 @@
         <v>327713.32691448723</v>
       </c>
       <c r="P146" s="28">
-        <v>12541.832</v>
+        <v>12238.026</v>
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" s="27" t="e">
@@ -36058,7 +36051,7 @@
         <v>328953.24279095093</v>
       </c>
       <c r="P147" s="28">
-        <v>12476.914000000001</v>
+        <v>12261.177</v>
       </c>
       <c r="Q147" s="2"/>
       <c r="R147" s="27" t="e">
@@ -36367,7 +36360,7 @@
         <v>331785.94207579701</v>
       </c>
       <c r="P148" s="28">
-        <v>12609.592000000001</v>
+        <v>12394.652999999998</v>
       </c>
       <c r="Q148" s="2"/>
       <c r="R148" s="27" t="e">
@@ -36676,7 +36669,7 @@
         <v>331863.00003895292</v>
       </c>
       <c r="P149" s="28">
-        <v>12638.706000000002</v>
+        <v>12293.335999999999</v>
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" s="27" t="e">
@@ -36985,7 +36978,7 @@
         <v>336851.03540822666</v>
       </c>
       <c r="P150" s="28">
-        <v>12770.773000000001</v>
+        <v>12541.832</v>
       </c>
       <c r="Q150" s="2"/>
       <c r="R150" s="27" t="e">
@@ -37294,7 +37287,7 @@
         <v>337789.80472828838</v>
       </c>
       <c r="P151" s="28">
-        <v>12839.502</v>
+        <v>12476.914000000001</v>
       </c>
       <c r="Q151" s="2"/>
       <c r="R151" s="27" t="e">
@@ -37602,6 +37595,9 @@
       <c r="O152" s="28">
         <v>341204.18888023589</v>
       </c>
+      <c r="P152" s="28">
+        <v>12609.592000000001</v>
+      </c>
       <c r="Q152" s="2"/>
       <c r="R152" s="27" t="e">
         <f t="shared" si="27"/>
@@ -37701,6 +37697,9 @@
       <c r="O153" s="28">
         <v>342454.17700962286</v>
       </c>
+      <c r="P153" s="28">
+        <v>12638.706000000002</v>
+      </c>
       <c r="Q153" s="2"/>
       <c r="R153" s="27" t="e">
         <f t="shared" si="27"/>
@@ -37800,6 +37799,9 @@
       <c r="O154" s="28">
         <v>346137.22324097779</v>
       </c>
+      <c r="P154" s="28">
+        <v>12770.773000000001</v>
+      </c>
       <c r="Q154" s="2"/>
       <c r="R154" s="27" t="e">
         <f t="shared" si="27"/>
@@ -37898,6 +37900,9 @@
       </c>
       <c r="O155" s="28">
         <v>347418.11768822494</v>
+      </c>
+      <c r="P155" s="28">
+        <v>12839.502</v>
       </c>
       <c r="Q155" s="2"/>
       <c r="R155" s="27" t="e">
